--- a/Streamlit/Data/Fuldførte institution .xlsx
+++ b/Streamlit/Data/Fuldførte institution .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7acf7bde8d491dbf/Dokumenter/BIexam/Exam_BI/Streamlit/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B9229-B41D-44BA-A6A7-010A6D85B679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5B2B9229-B41D-44BA-A6A7-010A6D85B679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F77EF0B-08BC-4691-8CF4-70898E0CCD68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -864,14 +864,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1215,15 +1215,15 @@
       <selection activeCell="B22" sqref="B22:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
@@ -1300,14 +1300,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1">
         <v>7950</v>
       </c>
@@ -1339,11 +1339,11 @@
         <v>8296</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1422,10 +1422,10 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1439,10 +1439,10 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1453,10 +1453,10 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1494,10 +1494,10 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1535,10 +1535,10 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1552,10 +1552,10 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1593,10 +1593,10 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1610,10 +1610,10 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1651,10 +1651,10 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1668,10 +1668,10 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1709,10 +1709,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1723,10 +1723,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1764,10 +1764,10 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1777,11 +1777,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:13" ht="15">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1819,10 +1819,10 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1860,10 +1860,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1900,11 +1900,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:13" ht="15">
+      <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1942,10 +1942,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1983,10 +1983,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2000,10 +2000,10 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2040,11 +2040,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:13" ht="15">
+      <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2082,10 +2082,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2117,10 +2117,10 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2152,10 +2152,10 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2187,10 +2187,10 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2228,10 +2228,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2251,10 +2251,10 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2264,11 +2264,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:13" ht="15">
+      <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2306,10 +2306,10 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2341,10 +2341,10 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2382,10 +2382,10 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2396,10 +2396,10 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2416,10 +2416,10 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2457,10 +2457,10 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2498,10 +2498,10 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2539,10 +2539,10 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2579,11 +2579,11 @@
         <v>983</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:13" ht="15">
+      <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2621,10 +2621,10 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2662,10 +2662,10 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2678,11 +2678,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:13" ht="15">
+      <c r="A45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2720,10 +2720,10 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2737,10 +2737,10 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2778,10 +2778,10 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2795,10 +2795,10 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2835,11 +2835,11 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:13" ht="15">
+      <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2877,10 +2877,10 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2894,10 +2894,10 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2935,10 +2935,10 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -3031,10 +3031,10 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3048,10 +3048,10 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -3089,10 +3089,10 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3106,10 +3106,10 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3146,14 +3146,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:13" ht="15">
+      <c r="A60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="1">
         <v>8</v>
       </c>
@@ -3179,11 +3179,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:13" ht="15">
+      <c r="A61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3203,10 +3203,10 @@
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3216,11 +3216,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:13" ht="15">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3250,10 +3250,10 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -3279,10 +3279,10 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -3292,14 +3292,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:13" ht="15">
+      <c r="A66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="1">
         <v>944</v>
       </c>
@@ -3331,11 +3331,11 @@
         <v>826</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:13" ht="15">
+      <c r="A67" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3373,10 +3373,10 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3413,11 +3413,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:13" ht="15">
+      <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3455,10 +3455,10 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -3495,11 +3495,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:13" ht="15">
+      <c r="A71" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3537,10 +3537,10 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -3578,10 +3578,10 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -3619,10 +3619,10 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3651,10 +3651,10 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3688,14 +3688,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:13" ht="15">
+      <c r="A76" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="1">
         <v>516</v>
       </c>
@@ -3727,11 +3727,11 @@
         <v>792</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:13" ht="15">
+      <c r="A77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3769,10 +3769,10 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3792,10 +3792,10 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -3824,10 +3824,10 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -3852,11 +3852,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:13" ht="15">
+      <c r="A81" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3894,10 +3894,10 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -3934,11 +3934,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:13" ht="15">
+      <c r="A83" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3976,10 +3976,10 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -4016,8 +4016,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:13" ht="15">
+      <c r="A85" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -4058,7 +4058,7 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -4112,11 +4112,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:13" ht="15">
+      <c r="A88" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -4154,10 +4154,10 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -4195,10 +4195,10 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -4211,14 +4211,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="8" t="s">
+    <row r="91" spans="1:13" ht="15">
+      <c r="A91" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="1">
         <v>17909</v>
       </c>
@@ -4250,11 +4250,11 @@
         <v>17978</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="92" spans="1:13" ht="15">
+      <c r="A92" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -4292,10 +4292,10 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -4333,10 +4333,10 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4373,11 +4373,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:13" ht="15">
+      <c r="A95" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -4415,10 +4415,10 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -4432,10 +4432,10 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -4449,10 +4449,10 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="A98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -4466,10 +4466,10 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="A99" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -4483,10 +4483,10 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="A100" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -4500,10 +4500,10 @@
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -4517,10 +4517,10 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="A102" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -4534,10 +4534,10 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -4551,10 +4551,10 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="A104" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -4568,10 +4568,10 @@
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="A105" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -4609,10 +4609,10 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="A106" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -4644,10 +4644,10 @@
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -4682,10 +4682,10 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B108" s="6" t="s">
+      <c r="A108" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -4696,10 +4696,10 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="A109" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -4734,10 +4734,10 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B110" s="6" t="s">
+      <c r="A110" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -4751,10 +4751,10 @@
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="A111" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -4780,10 +4780,10 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B112" s="6" t="s">
+      <c r="A112" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -4821,10 +4821,10 @@
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -4853,10 +4853,10 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -4894,10 +4894,10 @@
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -4935,10 +4935,10 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="A116" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -4970,10 +4970,10 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="A117" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -4987,10 +4987,10 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="A118" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -5028,10 +5028,10 @@
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -5069,10 +5069,10 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -5086,10 +5086,10 @@
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="A121" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -5103,10 +5103,10 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5120,10 +5120,10 @@
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B123" s="6" t="s">
+      <c r="A123" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -5134,10 +5134,10 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="A124" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -5151,10 +5151,10 @@
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="A125" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -5168,10 +5168,10 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="A126" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -5185,10 +5185,10 @@
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -5202,10 +5202,10 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B128" s="6" t="s">
+      <c r="A128" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5219,10 +5219,10 @@
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B129" s="6" t="s">
+      <c r="A129" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -5236,10 +5236,10 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B130" s="6" t="s">
+      <c r="A130" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -5253,10 +5253,10 @@
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B131" s="6" t="s">
+      <c r="A131" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -5270,10 +5270,10 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B132" s="6" t="s">
+      <c r="A132" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -5287,10 +5287,10 @@
       </c>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="A133" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -5300,11 +5300,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B134" s="6" t="s">
+    <row r="134" spans="1:13" ht="15">
+      <c r="A134" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -5342,10 +5342,10 @@
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B135" s="6" t="s">
+      <c r="A135" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -5362,10 +5362,10 @@
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="A136" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -5385,10 +5385,10 @@
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="A137" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -5426,10 +5426,10 @@
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="A138" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C138" s="3" t="s">
@@ -5443,10 +5443,10 @@
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="A139" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -5484,10 +5484,10 @@
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="A140" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C140" s="3" t="s">
@@ -5525,10 +5525,10 @@
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B141" s="6" t="s">
+      <c r="A141" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -5542,10 +5542,10 @@
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B142" s="6" t="s">
+      <c r="A142" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -5583,10 +5583,10 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B143" s="6" t="s">
+      <c r="A143" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -5600,10 +5600,10 @@
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="A144" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -5632,10 +5632,10 @@
       </c>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -5672,11 +5672,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B146" s="6" t="s">
+    <row r="146" spans="1:13" ht="15">
+      <c r="A146" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5714,10 +5714,10 @@
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B147" s="6" t="s">
+      <c r="A147" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -5734,10 +5734,10 @@
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C148" s="3" t="s">
@@ -5754,10 +5754,10 @@
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="A149" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -5774,10 +5774,10 @@
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B150" s="6" t="s">
+      <c r="A150" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -5794,10 +5794,10 @@
       </c>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C151" s="3" t="s">
@@ -5814,10 +5814,10 @@
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B152" s="6" t="s">
+      <c r="A152" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C152" s="3" t="s">
@@ -5834,10 +5834,10 @@
       </c>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B153" s="6" t="s">
+      <c r="A153" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -5854,10 +5854,10 @@
       </c>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B154" s="6" t="s">
+      <c r="A154" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -5874,10 +5874,10 @@
       </c>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -5894,10 +5894,10 @@
       </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B156" s="6" t="s">
+      <c r="A156" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -5914,10 +5914,10 @@
       </c>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B157" s="6" t="s">
+      <c r="A157" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -5934,10 +5934,10 @@
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B158" s="6" t="s">
+      <c r="A158" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5954,10 +5954,10 @@
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B159" s="6" t="s">
+      <c r="A159" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -5995,10 +5995,10 @@
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B160" s="6" t="s">
+      <c r="A160" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -6036,10 +6036,10 @@
       </c>
     </row>
     <row r="161" spans="1:13">
-      <c r="A161" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B161" s="6" t="s">
+      <c r="A161" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -6050,10 +6050,10 @@
       </c>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162" s="6" t="s">
+      <c r="A162" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -6091,10 +6091,10 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163" s="6" t="s">
+      <c r="A163" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -6132,10 +6132,10 @@
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B164" s="6" t="s">
+      <c r="A164" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -6149,10 +6149,10 @@
       </c>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B165" s="6" t="s">
+      <c r="A165" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -6168,11 +6168,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
-      <c r="A166" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B166" s="6" t="s">
+    <row r="166" spans="1:13" ht="15">
+      <c r="A166" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -6210,10 +6210,10 @@
       </c>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B167" s="6" t="s">
+      <c r="A167" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -6227,10 +6227,10 @@
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B168" s="6" t="s">
+      <c r="A168" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -6244,10 +6244,10 @@
       </c>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B169" s="6" t="s">
+      <c r="A169" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -6261,10 +6261,10 @@
       </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B170" s="6" t="s">
+      <c r="A170" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -6278,10 +6278,10 @@
       </c>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B171" s="6" t="s">
+      <c r="A171" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -6295,10 +6295,10 @@
       </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B172" s="6" t="s">
+      <c r="A172" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -6312,10 +6312,10 @@
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B173" s="6" t="s">
+      <c r="A173" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -6329,10 +6329,10 @@
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B174" s="6" t="s">
+      <c r="A174" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -6346,10 +6346,10 @@
       </c>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B175" s="6" t="s">
+      <c r="A175" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -6363,10 +6363,10 @@
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B176" s="6" t="s">
+      <c r="A176" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B176" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -6380,10 +6380,10 @@
       </c>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B177" s="6" t="s">
+      <c r="A177" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6397,10 +6397,10 @@
       </c>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B178" s="6" t="s">
+      <c r="A178" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -6438,10 +6438,10 @@
       </c>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B179" s="6" t="s">
+      <c r="A179" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -6452,10 +6452,10 @@
       </c>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B180" s="6" t="s">
+      <c r="A180" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C180" s="3" t="s">
@@ -6493,10 +6493,10 @@
       </c>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B181" s="6" t="s">
+      <c r="A181" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -6534,10 +6534,10 @@
       </c>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B182" s="6" t="s">
+      <c r="A182" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -6575,10 +6575,10 @@
       </c>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B183" s="6" t="s">
+      <c r="A183" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -6616,10 +6616,10 @@
       </c>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B184" s="6" t="s">
+      <c r="A184" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -6657,10 +6657,10 @@
       </c>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B185" s="6" t="s">
+      <c r="A185" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -6670,11 +6670,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B186" s="6" t="s">
+    <row r="186" spans="1:13" ht="15">
+      <c r="A186" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -6712,10 +6712,10 @@
       </c>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B187" s="6" t="s">
+      <c r="A187" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C187" s="3" t="s">
@@ -6729,10 +6729,10 @@
       </c>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B188" s="6" t="s">
+      <c r="A188" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -6746,10 +6746,10 @@
       </c>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B189" s="6" t="s">
+      <c r="A189" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C189" s="3" t="s">
@@ -6760,10 +6760,10 @@
       </c>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B190" s="6" t="s">
+      <c r="A190" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -6777,10 +6777,10 @@
       </c>
     </row>
     <row r="191" spans="1:13">
-      <c r="A191" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B191" s="6" t="s">
+      <c r="A191" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B191" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -6794,10 +6794,10 @@
       </c>
     </row>
     <row r="192" spans="1:13">
-      <c r="A192" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B192" s="6" t="s">
+      <c r="A192" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C192" s="3" t="s">
@@ -6811,10 +6811,10 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="A193" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B193" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -6828,10 +6828,10 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B194" s="6" t="s">
+      <c r="A194" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -6845,10 +6845,10 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="A195" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6859,10 +6859,10 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="A196" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -6876,10 +6876,10 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B197" s="6" t="s">
+      <c r="A197" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -6890,10 +6890,10 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="A198" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -6907,10 +6907,10 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B199" s="6" t="s">
+      <c r="A199" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -6921,10 +6921,10 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B200" s="6" t="s">
+      <c r="A200" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -6935,10 +6935,10 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B201" s="6" t="s">
+      <c r="A201" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -6952,10 +6952,10 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B202" s="6" t="s">
+      <c r="A202" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -6966,10 +6966,10 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B203" s="6" t="s">
+      <c r="A203" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -6983,10 +6983,10 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B204" s="6" t="s">
+      <c r="A204" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -7000,10 +7000,10 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B205" s="6" t="s">
+      <c r="A205" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -7017,10 +7017,10 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B206" s="6" t="s">
+      <c r="A206" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -7034,10 +7034,10 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B207" s="6" t="s">
+      <c r="A207" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -7051,10 +7051,10 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B208" s="6" t="s">
+      <c r="A208" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -7065,10 +7065,10 @@
       </c>
     </row>
     <row r="209" spans="1:13">
-      <c r="A209" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B209" s="6" t="s">
+      <c r="A209" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C209" s="3" t="s">
@@ -7082,10 +7082,10 @@
       </c>
     </row>
     <row r="210" spans="1:13">
-      <c r="A210" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B210" s="6" t="s">
+      <c r="A210" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -7123,10 +7123,10 @@
       </c>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B211" s="6" t="s">
+      <c r="A211" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -7164,10 +7164,10 @@
       </c>
     </row>
     <row r="212" spans="1:13">
-      <c r="A212" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B212" s="6" t="s">
+      <c r="A212" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C212" s="3" t="s">
@@ -7205,10 +7205,10 @@
       </c>
     </row>
     <row r="213" spans="1:13">
-      <c r="A213" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B213" s="6" t="s">
+      <c r="A213" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -7246,10 +7246,10 @@
       </c>
     </row>
     <row r="214" spans="1:13">
-      <c r="A214" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B214" s="6" t="s">
+      <c r="A214" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C214" s="3" t="s">
@@ -7287,10 +7287,10 @@
       </c>
     </row>
     <row r="215" spans="1:13">
-      <c r="A215" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B215" s="6" t="s">
+      <c r="A215" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -7328,10 +7328,10 @@
       </c>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B216" s="6" t="s">
+      <c r="A216" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C216" s="3" t="s">
@@ -7345,10 +7345,10 @@
       </c>
     </row>
     <row r="217" spans="1:13">
-      <c r="A217" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B217" s="6" t="s">
+      <c r="A217" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -7386,10 +7386,10 @@
       </c>
     </row>
     <row r="218" spans="1:13">
-      <c r="A218" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B218" s="6" t="s">
+      <c r="A218" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C218" s="3" t="s">
@@ -7403,10 +7403,10 @@
       </c>
     </row>
     <row r="219" spans="1:13">
-      <c r="A219" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B219" s="6" t="s">
+      <c r="A219" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7444,10 +7444,10 @@
       </c>
     </row>
     <row r="220" spans="1:13">
-      <c r="A220" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B220" s="6" t="s">
+      <c r="A220" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C220" s="3" t="s">
@@ -7479,10 +7479,10 @@
       </c>
     </row>
     <row r="221" spans="1:13">
-      <c r="A221" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B221" s="6" t="s">
+      <c r="A221" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -7517,10 +7517,10 @@
       </c>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B222" s="6" t="s">
+      <c r="A222" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -7558,10 +7558,10 @@
       </c>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B223" s="6" t="s">
+      <c r="A223" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C223" s="3" t="s">
@@ -7599,10 +7599,10 @@
       </c>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B224" s="6" t="s">
+      <c r="A224" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7640,10 +7640,10 @@
       </c>
     </row>
     <row r="225" spans="1:13">
-      <c r="A225" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B225" s="6" t="s">
+      <c r="A225" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B225" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -7681,10 +7681,10 @@
       </c>
     </row>
     <row r="226" spans="1:13">
-      <c r="A226" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B226" s="6" t="s">
+      <c r="A226" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B226" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C226" s="3" t="s">
@@ -7698,10 +7698,10 @@
       </c>
     </row>
     <row r="227" spans="1:13">
-      <c r="A227" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B227" s="6" t="s">
+      <c r="A227" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B227" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C227" s="3" t="s">
@@ -7738,11 +7738,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B228" s="6" t="s">
+    <row r="228" spans="1:13" ht="15">
+      <c r="A228" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
@@ -7780,10 +7780,10 @@
       </c>
     </row>
     <row r="229" spans="1:13">
-      <c r="A229" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B229" s="6" t="s">
+      <c r="A229" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7797,10 +7797,10 @@
       </c>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B230" s="6" t="s">
+      <c r="A230" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C230" s="3" t="s">
@@ -7814,10 +7814,10 @@
       </c>
     </row>
     <row r="231" spans="1:13">
-      <c r="A231" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B231" s="6" t="s">
+      <c r="A231" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B231" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C231" s="3" t="s">
@@ -7831,10 +7831,10 @@
       </c>
     </row>
     <row r="232" spans="1:13">
-      <c r="A232" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B232" s="6" t="s">
+      <c r="A232" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -7845,10 +7845,10 @@
       </c>
     </row>
     <row r="233" spans="1:13">
-      <c r="A233" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B233" s="6" t="s">
+      <c r="A233" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -7862,10 +7862,10 @@
       </c>
     </row>
     <row r="234" spans="1:13">
-      <c r="A234" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B234" s="6" t="s">
+      <c r="A234" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B234" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -7876,10 +7876,10 @@
       </c>
     </row>
     <row r="235" spans="1:13">
-      <c r="A235" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B235" s="6" t="s">
+      <c r="A235" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C235" s="3" t="s">
@@ -7893,10 +7893,10 @@
       </c>
     </row>
     <row r="236" spans="1:13">
-      <c r="A236" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B236" s="6" t="s">
+      <c r="A236" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C236" s="3" t="s">
@@ -7910,10 +7910,10 @@
       </c>
     </row>
     <row r="237" spans="1:13">
-      <c r="A237" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B237" s="6" t="s">
+      <c r="A237" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C237" s="3" t="s">
@@ -7927,10 +7927,10 @@
       </c>
     </row>
     <row r="238" spans="1:13">
-      <c r="A238" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B238" s="6" t="s">
+      <c r="A238" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -7941,10 +7941,10 @@
       </c>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B239" s="6" t="s">
+      <c r="A239" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C239" s="3" t="s">
@@ -7955,10 +7955,10 @@
       </c>
     </row>
     <row r="240" spans="1:13">
-      <c r="A240" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B240" s="6" t="s">
+      <c r="A240" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C240" s="3" t="s">
@@ -7972,10 +7972,10 @@
       </c>
     </row>
     <row r="241" spans="1:13">
-      <c r="A241" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B241" s="6" t="s">
+      <c r="A241" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C241" s="3" t="s">
@@ -7989,10 +7989,10 @@
       </c>
     </row>
     <row r="242" spans="1:13">
-      <c r="A242" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B242" s="6" t="s">
+      <c r="A242" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B242" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -8003,10 +8003,10 @@
       </c>
     </row>
     <row r="243" spans="1:13">
-      <c r="A243" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B243" s="6" t="s">
+      <c r="A243" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -8017,10 +8017,10 @@
       </c>
     </row>
     <row r="244" spans="1:13">
-      <c r="A244" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B244" s="6" t="s">
+      <c r="A244" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B244" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C244" s="3" t="s">
@@ -8031,10 +8031,10 @@
       </c>
     </row>
     <row r="245" spans="1:13">
-      <c r="A245" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B245" s="6" t="s">
+      <c r="A245" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C245" s="3" t="s">
@@ -8045,10 +8045,10 @@
       </c>
     </row>
     <row r="246" spans="1:13">
-      <c r="A246" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B246" s="6" t="s">
+      <c r="A246" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -8059,10 +8059,10 @@
       </c>
     </row>
     <row r="247" spans="1:13">
-      <c r="A247" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B247" s="6" t="s">
+      <c r="A247" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C247" s="3" t="s">
@@ -8076,10 +8076,10 @@
       </c>
     </row>
     <row r="248" spans="1:13">
-      <c r="A248" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B248" s="6" t="s">
+      <c r="A248" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B248" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C248" s="3" t="s">
@@ -8093,10 +8093,10 @@
       </c>
     </row>
     <row r="249" spans="1:13">
-      <c r="A249" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B249" s="6" t="s">
+      <c r="A249" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B249" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C249" s="3" t="s">
@@ -8134,10 +8134,10 @@
       </c>
     </row>
     <row r="250" spans="1:13">
-      <c r="A250" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B250" s="6" t="s">
+      <c r="A250" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B250" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C250" s="3" t="s">
@@ -8172,10 +8172,10 @@
       </c>
     </row>
     <row r="251" spans="1:13">
-      <c r="A251" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B251" s="6" t="s">
+      <c r="A251" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B251" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C251" s="3" t="s">
@@ -8195,10 +8195,10 @@
       </c>
     </row>
     <row r="252" spans="1:13">
-      <c r="A252" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B252" s="6" t="s">
+      <c r="A252" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B252" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -8233,10 +8233,10 @@
       </c>
     </row>
     <row r="253" spans="1:13">
-      <c r="A253" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B253" s="6" t="s">
+      <c r="A253" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B253" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C253" s="3" t="s">
@@ -8250,10 +8250,10 @@
       </c>
     </row>
     <row r="254" spans="1:13">
-      <c r="A254" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B254" s="6" t="s">
+      <c r="A254" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B254" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -8291,10 +8291,10 @@
       </c>
     </row>
     <row r="255" spans="1:13">
-      <c r="A255" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B255" s="6" t="s">
+      <c r="A255" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B255" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C255" s="3" t="s">
@@ -8305,10 +8305,10 @@
       </c>
     </row>
     <row r="256" spans="1:13">
-      <c r="A256" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B256" s="6" t="s">
+      <c r="A256" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B256" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -8343,10 +8343,10 @@
       </c>
     </row>
     <row r="257" spans="1:13">
-      <c r="A257" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B257" s="6" t="s">
+      <c r="A257" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B257" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C257" s="3" t="s">
@@ -8380,14 +8380,14 @@
         <v>225</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
-      <c r="A258" s="6" t="s">
+    <row r="258" spans="1:13" ht="15">
+      <c r="A258" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C258" s="9"/>
+      <c r="C258" s="8"/>
       <c r="D258" s="1">
         <v>38471</v>
       </c>
@@ -8419,8 +8419,8 @@
         <v>43102</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:13" ht="15">
+      <c r="A259" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -8460,8 +8460,8 @@
         <v>5233</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
-      <c r="A260" s="6" t="s">
+    <row r="260" spans="1:13" ht="15">
+      <c r="A260" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B260" s="5" t="s">
@@ -8501,8 +8501,8 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
-      <c r="A261" s="6" t="s">
+    <row r="261" spans="1:13" ht="15">
+      <c r="A261" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -8542,8 +8542,8 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
-      <c r="A262" s="6" t="s">
+    <row r="262" spans="1:13" ht="15">
+      <c r="A262" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B262" s="5" t="s">
@@ -8583,8 +8583,8 @@
         <v>10429</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
-      <c r="A263" s="6" t="s">
+    <row r="263" spans="1:13" ht="15">
+      <c r="A263" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -8624,8 +8624,8 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
-      <c r="A264" s="6" t="s">
+    <row r="264" spans="1:13" ht="15">
+      <c r="A264" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B264" s="5" t="s">
@@ -8665,8 +8665,8 @@
         <v>5632</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
-      <c r="A265" s="6" t="s">
+    <row r="265" spans="1:13" ht="15">
+      <c r="A265" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B265" s="5" t="s">
@@ -8706,8 +8706,8 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
-      <c r="A266" s="6" t="s">
+    <row r="266" spans="1:13" ht="15">
+      <c r="A266" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B266" s="5" t="s">
@@ -8747,12 +8747,12 @@
         <v>9454</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
-      <c r="A267" s="8" t="s">
+    <row r="267" spans="1:13" ht="15">
+      <c r="A267" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B267" s="7"/>
-      <c r="C267" s="9"/>
+      <c r="C267" s="8"/>
       <c r="D267" s="1">
         <v>65798</v>
       </c>
@@ -8786,6 +8786,33 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A3:A59"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
     <mergeCell ref="A267:C267"/>
     <mergeCell ref="B166:B185"/>
     <mergeCell ref="B186:B227"/>
@@ -8798,33 +8825,6 @@
     <mergeCell ref="B95:B133"/>
     <mergeCell ref="B134:B145"/>
     <mergeCell ref="B146:B165"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A76:A90"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A3:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
